--- a/react/chatbot/tools/entries.xlsx
+++ b/react/chatbot/tools/entries.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Entry" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Entrada" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="179">
   <si>
     <t xml:space="preserve">Internet Provider</t>
   </si>
@@ -97,10 +98,10 @@
     <t xml:space="preserve">product_inquiry</t>
   </si>
   <si>
-    <t xml:space="preserve">tell me about your products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We offer a variety of products including electronics, books, clothing, and more. How can I assist you further?</t>
+    <t xml:space="preserve">tell me about the kind of business you handle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We sell houses, departmentes, offices so that yourself feels comfortable and in a good place for living.</t>
   </si>
   <si>
     <t xml:space="preserve">what do you sell?</t>
@@ -109,7 +110,7 @@
     <t xml:space="preserve">product information</t>
   </si>
   <si>
-    <t xml:space="preserve">show me your products</t>
+    <t xml:space="preserve">show me the houses or departments which are still in sale</t>
   </si>
   <si>
     <t xml:space="preserve">what can I buy?</t>
@@ -136,25 +137,19 @@
     <t xml:space="preserve">order update</t>
   </si>
   <si>
-    <t xml:space="preserve">shipping_info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shipping information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We offer various shipping methods including standard, express, and next-day delivery. Shipping times depend on the method chosen and your location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">how do you ship?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shipping methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delivery options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">how long does shipping take?</t>
+    <t xml:space="preserve">time_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What time can we set up a meeting to take a look to the house?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We manage this schedules to set up a meeting. Tuesday/Friday from 10 AM to 4 PM. Monday from 9 AM to 3 PM. Wednesday/Thursday from 9 AM to 2 PM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What time can we set up a meeting to take a look to the departmet?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What time can we set up a meeting to take a look to the office?</t>
   </si>
   <si>
     <t xml:space="preserve">return_policy</t>
@@ -163,7 +158,7 @@
     <t xml:space="preserve">return policy</t>
   </si>
   <si>
-    <t xml:space="preserve">Our return policy allows you to return products within 30 days of purchase. Please visit our returns page for detailed instructions.</t>
+    <t xml:space="preserve">We count with money devolution in case you want to abort the buying operation. Please visit our returns page for detailed instructions.</t>
   </si>
   <si>
     <t xml:space="preserve">how to return?</t>
@@ -293,6 +288,276 @@
   </si>
   <si>
     <t xml:space="preserve">It includes 1 bathroom, 4 rooms, kitchen, and furnitures already provided.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proveedor de Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etiqueta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respuesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saludo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hola! ¿En qué puedo ayudarte hoy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buenas noches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hola. Gusto en conocerte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buenos dias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buenas tardes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">como va todo por ahi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">despedida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adios! Que tengas un día!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasta luego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">te veo mas tarde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nos vemos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mas tarde nos vemos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agradecimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gracias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buenas! Si tienes alguna pregunta, no dudes en hecerla. Y nosotros te responderemos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gracias a ti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo valoro mucho de tu parte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gracias muchas gracias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">producto_consulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dime que a que tipo de negocios te dedicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendemos casas, departamentos, oficinas para que usted se sienta comodo y en un buen lugar para vivir o convivir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">que es lo que vendes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information del producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muestrame las casas o departamentos que aun estan en venta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">que puedo comprar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estado_ordern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿donde esta mi orden?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por favor, dime el ID de la orden, y te diremos el estado de la orden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estado de la orden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguimiento de la orden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguimiento de orden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizacion de la orden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info_tiempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿A que hora podemos tener una reunion para que pueda echar una mirada a la casa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manejamos los siguientes horarios para agengar una reunion. Martes/Viernes de 10 AM a 4 PM. Lunes de 9 AM a 3 PM. Miércoles/Jueves de 9 AM a 2 PM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿A que hora podemos tener una reunion para que pueda echar una mirada al departamento?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿A que hora podemos tener una reunion para que pueda echar una mirada a la oficina?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">politica_devolucion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">politica devolucion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contamos con devolucion de dinero en caso de querer abortar la operacion de compra. Por favor, visita nuestro sitio web para instrucciones más detalladas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿como puedo obtener mi dinero de vuelta?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proceso devolucion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿puedo abortar la operación de compra?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devolucion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formas_pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formas pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aceptamos diferentes formas de pago. Transferencia bancaria o efectivo en mano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿como puedo pagar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metodos de pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pagos disponibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contacto_cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puedes contactar nuestro equipo de soporte via correo en support@example.com o llamarnos a 1-800-123-4567.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿como puedo contactarlos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cliente contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contacto info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cliente servicio contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horas_negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horas negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuestro horario de atencion es de Lunes a Viernes, 9 AM a 5 PM. Nostros cerramos los fines de semana y feriados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horas de trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿cuando estan abierto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horas abierto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precio_departamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿cuanto cuesta ese departamento?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuesta $ 150.000 USD hasta fin de este mes. Despues, puede subir su precio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comprar_departamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿que puedo hacer para empezar a pagar el departamento?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tu puedes empezar por pagar la mitad de su precio. Después puedes pagar el resto en 3 o 4 partes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">servicio_departamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿que servicios incluye el departamento?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluye 2 baños, 2 habitaciones, y una cocina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puedo decirte que incluye 2 baños, 2 habitaciones y una cocina. En caso, que quieras conocer mas, puedes visitar el lugar y te podremos brindar mas informacion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precio_casa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿cuanto cuesta esa casa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuesta $ 350.000 USD todo este año. Despues, el precio puede ascender un poco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comprar_casa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿que puedo hacer para empezar a pagar la casa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puedes pagar la mitad ahora y despues el resto en varias partes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">servicio_casa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿que servicios incluye la casa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluye 1 baño, 4 habitaciones, cocina y muebles ya provistos.</t>
   </si>
 </sst>
 </file>
@@ -302,7 +567,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -329,11 +594,6 @@
       <name val="Bahnschrift SemiCondensed"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="Bahnschrift SemiCondensed"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -409,7 +669,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -431,10 +691,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -625,10 +881,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -645,7 +901,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -656,7 +912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -667,7 +923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -678,7 +934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -689,7 +945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -700,7 +956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -711,7 +967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -722,7 +978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -733,7 +989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -744,7 +1000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -755,7 +1011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -766,7 +1022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -777,7 +1033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -788,7 +1044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -799,7 +1055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -810,7 +1066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -821,7 +1077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -832,7 +1088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -843,7 +1099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -854,18 +1110,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -876,7 +1132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -887,7 +1143,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
@@ -898,7 +1154,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
@@ -909,7 +1165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -920,7 +1176,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -931,7 +1187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="45.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
@@ -942,7 +1198,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="45.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>38</v>
       </c>
@@ -953,7 +1209,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="45.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>38</v>
       </c>
@@ -964,312 +1220,290 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="45.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="5" t="s">
+    <row r="31" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="45.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="45.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="45.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="45.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="45.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="4" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="45.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="45.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="45.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="45.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="5" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="45.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="4" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="5" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="s">
         <v>76</v>
       </c>
+      <c r="B53" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="C53" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="4" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="45.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>79</v>
+      <c r="B54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1284,4 +1518,637 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48.07"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>